--- a/spec/fixtures/files/models/concerns/term_change_excel/change_input_3.xlsx
+++ b/spec/fixtures/files/models/concerns/term_change_excel/change_input_3.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Request Code</t>
   </si>
@@ -82,6 +82,33 @@
   </si>
   <si>
     <t>This codelist is retired, please use new CGI GUY terminology (codelists C135683 and C135684) which is the original CGI developed by Guy W. For disease-specific CGI, please use the Generic Version of CGI (codelists C135685 and C135686).</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Prev Codelist</t>
+  </si>
+  <si>
+    <t>Prev Term</t>
+  </si>
+  <si>
+    <t>New Codelists</t>
+  </si>
+  <si>
+    <t>New Terms</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>C12345</t>
+  </si>
+  <si>
+    <t>text</t>
   </si>
 </sst>
 </file>
@@ -109,7 +136,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,6 +152,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -171,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -182,9 +215,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -196,6 +226,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -528,11 +567,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -546,122 +585,146 @@
     <col min="7" max="7" width="48" style="3" customWidth="1"/>
     <col min="8" max="10" width="9.1640625" style="3"/>
     <col min="11" max="11" width="23.5" style="3" customWidth="1"/>
-    <col min="12" max="12" width="29.33203125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.83203125" style="3" customWidth="1"/>
     <col min="13" max="13" width="42.6640625" style="3" customWidth="1"/>
     <col min="14" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="24">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="24">
+      <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-    </row>
-    <row r="2" spans="1:14" ht="120">
-      <c r="A2" s="6" t="s">
+      <c r="L1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="120">
+      <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="L2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:17">
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:17">
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:17">
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:17">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:17">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:17">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:17">
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:17">
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:17">
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:17">
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:17">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:17">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:17">
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="2:2">
